--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/Thu vien tong hop fault.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources/Du lieu cau hoi/Thu vien tong hop fault.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\30-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C5799A-FD5D-439B-AC93-66628D1C4B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -127,18 +126,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>\\Resources\\tong hop final wiring\\c1.png</t>
-  </si>
-  <si>
-    <t>\\Resources\\tong hop final wiring\\c2.png</t>
-  </si>
-  <si>
-    <t>\\Resources\\tong hop final wiring\\c3.png</t>
-  </si>
-  <si>
-    <t>\\Resources\\tong hop final wiring\\c4.png</t>
   </si>
   <si>
     <t>p1</t>
@@ -593,11 +580,71 @@
   <si>
     <t>Hình 1</t>
   </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\1.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\3.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\5.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\7.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\9.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\11.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\13.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\15.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\17.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\19.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\21.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\23.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\25.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\27.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\29.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\31.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\33.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\35.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\37.png</t>
+  </si>
+  <si>
+    <t>\\Resources\\tong hop final wiring\\39.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1034,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1075,22 +1122,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1101,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
@@ -1113,22 +1160,22 @@
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1142,7 +1189,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>7</v>
@@ -1151,22 +1198,22 @@
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1180,7 +1227,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -1189,22 +1236,22 @@
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1218,7 +1265,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
@@ -1227,22 +1274,22 @@
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1256,7 +1303,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
@@ -1265,22 +1312,22 @@
         <v>7</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1294,7 +1341,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>7</v>
@@ -1303,22 +1350,22 @@
         <v>8</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1332,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>6</v>
@@ -1341,22 +1388,22 @@
         <v>8</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1367,10 +1414,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>6</v>
@@ -1379,22 +1426,22 @@
         <v>6</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1405,10 +1452,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>6</v>
@@ -1417,22 +1464,22 @@
         <v>7</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1446,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>25</v>
@@ -1455,22 +1502,22 @@
         <v>25</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1484,7 +1531,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>7</v>
@@ -1493,22 +1540,22 @@
         <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1522,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>7</v>
@@ -1531,22 +1578,22 @@
         <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1560,7 +1607,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>25</v>
@@ -1569,22 +1616,22 @@
         <v>8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1598,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>7</v>
@@ -1607,22 +1654,22 @@
         <v>25</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1636,7 +1683,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>9</v>
@@ -1645,22 +1692,22 @@
         <v>6</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1674,7 +1721,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>9</v>
@@ -1683,22 +1730,22 @@
         <v>7</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1712,7 +1759,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>6</v>
@@ -1721,22 +1768,22 @@
         <v>7</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1750,7 +1797,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>6</v>
@@ -1759,22 +1806,22 @@
         <v>25</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1788,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>9</v>
@@ -1797,22 +1844,22 @@
         <v>25</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="70.2" x14ac:dyDescent="0.35">
@@ -1826,7 +1873,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>11</v>
@@ -1835,22 +1882,22 @@
         <v>25</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2389,36 +2436,52 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G3:G6" r:id="rId5" display="\\Resources\\tong hop final wiring\\c1.png" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G8:G11" r:id="rId6" display="\\Resources\\tong hop final wiring\\c2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G13:G17" r:id="rId7" display="\\Resources\\tong hop final wiring\\c3.png" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G19:G23" r:id="rId8" display="\\Resources\\tong hop final wiring\\c4.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H21" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G12" r:id="rId3"/>
+    <hyperlink ref="G18" r:id="rId4"/>
+    <hyperlink ref="G3:G6" r:id="rId5" display="\\Resources\\tong hop final wiring\\c1.png"/>
+    <hyperlink ref="G8:G11" r:id="rId6" display="\\Resources\\tong hop final wiring\\c2.png"/>
+    <hyperlink ref="G13:G17" r:id="rId7" display="\\Resources\\tong hop final wiring\\c3.png"/>
+    <hyperlink ref="G19:G23" r:id="rId8" display="\\Resources\\tong hop final wiring\\c4.png"/>
+    <hyperlink ref="H2" r:id="rId9"/>
+    <hyperlink ref="H3" r:id="rId10"/>
+    <hyperlink ref="H4" r:id="rId11"/>
+    <hyperlink ref="H5" r:id="rId12"/>
+    <hyperlink ref="H6" r:id="rId13"/>
+    <hyperlink ref="H7" r:id="rId14"/>
+    <hyperlink ref="H8" r:id="rId15"/>
+    <hyperlink ref="H9" r:id="rId16"/>
+    <hyperlink ref="H10" r:id="rId17"/>
+    <hyperlink ref="H11" r:id="rId18"/>
+    <hyperlink ref="H12" r:id="rId19"/>
+    <hyperlink ref="H13" r:id="rId20"/>
+    <hyperlink ref="H14" r:id="rId21"/>
+    <hyperlink ref="H15" r:id="rId22"/>
+    <hyperlink ref="H16" r:id="rId23"/>
+    <hyperlink ref="H17" r:id="rId24"/>
+    <hyperlink ref="H18" r:id="rId25"/>
+    <hyperlink ref="H19" r:id="rId26"/>
+    <hyperlink ref="H20" r:id="rId27"/>
+    <hyperlink ref="H21" r:id="rId28"/>
+    <hyperlink ref="G3" r:id="rId29"/>
+    <hyperlink ref="G4" r:id="rId30"/>
+    <hyperlink ref="G5" r:id="rId31"/>
+    <hyperlink ref="G6" r:id="rId32"/>
+    <hyperlink ref="G8" r:id="rId33"/>
+    <hyperlink ref="G9" r:id="rId34"/>
+    <hyperlink ref="G10" r:id="rId35"/>
+    <hyperlink ref="G11" r:id="rId36"/>
+    <hyperlink ref="G13" r:id="rId37"/>
+    <hyperlink ref="G14" r:id="rId38"/>
+    <hyperlink ref="G15" r:id="rId39"/>
+    <hyperlink ref="G16" r:id="rId40"/>
+    <hyperlink ref="G17" r:id="rId41"/>
+    <hyperlink ref="G19" r:id="rId42"/>
+    <hyperlink ref="G20" r:id="rId43"/>
+    <hyperlink ref="G21" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>